--- a/validation/final paper selection.xlsx
+++ b/validation/final paper selection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>notes</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +543,7 @@
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -588,6 +594,7 @@
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +639,7 @@
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -679,6 +687,7 @@
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -723,6 +732,7 @@
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -767,6 +777,7 @@
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -811,6 +822,7 @@
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -892,6 +904,7 @@
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -940,6 +953,7 @@
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -984,6 +998,7 @@
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1030,6 +1045,7 @@
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1080,6 +1096,7 @@
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1137,6 +1154,7 @@
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1188,6 +1206,7 @@
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1233,6 +1252,7 @@
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1298,6 +1318,7 @@
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1343,6 +1364,7 @@
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1391,6 +1413,7 @@
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1435,6 +1458,296 @@
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Analysing app reviews for software engineering: a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>182</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>RQ1: What are the different types of app review analyses?
+RQ2: What techniques are used to realize app review analyses?
+RQ3: What software engineering activities are claimed to be supported by analysing app reviews?
+RQ4: How are app review analysis approaches empirically evaluated?
+RQ5: How well do existing app review analysis approaches support software engineers?</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>('app review' OR 'user review' OR 'app store review' OR 'user feedback') AND ('software engineering' OR 'requirement engineering' OR 'software requirement' OR 'software design' OR 'software construction' OR 'software testing' OR 'software maintenance' OR 'software configuration' OR 'software development' OR 'software quality' OR 'software coding') AND ('app store')</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Analytic hierarchy process-based prioritization framework for vendor's reliability challenges in global software development</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>89</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>RQ1. What are the challenges, as identified in the literature, inside an offshore development outsourcing vendor organization regarding their reliability that have a negative effect on outsourcing clients?
+RQ2. How are values allocated to the identified issues, and how are the critical issues categorized and prioritized?</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>(“software outsourcing” OR “software outsourcing development” OR “global software development”) AND (“challenges” OR “obstacles” OR “barriers” OR “hurdles” OR “risks” OR “issues” OR “risk analysis” OR “critical factors”) AND (“vendor OR dealer OR service-provider OR marketer OR trader OR developer OR seller OR salesperson OR merchant OR retailer OR wholesaler”)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Analyzing and documenting the systematic review results of software testing ontologies</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>RQ1: What are the conceptualized ontologies for the software testing domain? RQ2: What are the most frequently included concepts, their relationships, properties and axioms needed to describe the software testing domain? RQ3: How are existing software testing ontologies classified?</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>("Software Testing" OR "Software Test") AND ("Ontology" OR "Ontologies")</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Analyzing impact of experience curve on ROI in the software product line adoption process</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>RQ1: For which goals has the experience curve effect been studied in software engineering?
+RQ2: In which domain contexts has the experience curve model been applied in software engineering?
+RQ3: What is the reported evidence in the application of the experience curve models in software engineering?
+RQ4: In which software lifecycle activities has the experience curve model been applied?
+RQ5: What are the identified findings with respect to experience curve effect in software engineering?</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>(“experience curve” OR “learning curve”) AND (“software development” OR “software engineering” OR “software process” OR “software project”)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Antecedents to IT personnel's intentions to leave: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>72</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RQ: What drives IT personnel's intentions to leave their workplace? </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>(“intention to leave” or “intention for turnover” or “intention to quit” or “intention to withdraw” or “intention to stay” or “turnover intention” or “leave intention” or “quit intention” or “stay intention” or “withdrawal intention” or “employee retention” or “employees retention” or “personnel retention” or “worker retention” or “workers retention” or “manager retention” or “managers retention” or “professional retention” or “professionals retention”)
+AND (“IS worker” or “IT worker” or “IS employee” or “IT employee” or “IS personnel” or “IT personnel” or “IS manager” or “IT manager” or “IS professional” or “IT professional” or “IS workforce” or “IT workforce” or “Software engineer” or “software developer” or “software programmer” or “software manager” or “system analyst” or “software designer” or “software project manager”)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>61</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Approaches to manage the user experience process in Agile software development: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>49</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>RQ1: Which approaches are suitable for UX management in an agile context?
+RQ2: What conclusions can be deducted from the studies found?
+RQ3: How can user experience in Agile software development be planned and controlled for a product backlog item or a requirement before the development?
+RQ4: What retrospective proposals exist to improve the efficiency and effectiveness of the user experience process in terms of Agile software development?</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>(agile OR kanban OR scrum OR lean OR “extreme programming” OR “design thinking”)
+AND
+(“user experience” OR ux OR usability OR hcd OR hci OR hmi OR ucd)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>An essential requirement is the integration of user experience methods in Agile software development. Based on this, the development of positive user experience must be managed. We understand management in general as a combination of a goal, a strategy, and resources. When applied to UX, user experience management consists of a UX goal, a UX strategy, and UX resources.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
